--- a/legendre_out/DATA/p2/p2IntegrandSplinePoints1.500000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandSplinePoints1.500000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>1.10173774521692e-15</v>
+        <v>1.081922716874622e-15</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>1.097991096411072e-15</v>
+        <v>1.107363915725945e-15</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>1.105145193659383e-15</v>
+        <v>1.136951304416244e-15</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>1.122377991199275e-15</v>
+        <v>1.170448130240409e-15</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>1.148867443268187e-15</v>
+        <v>1.207617640493441e-15</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>1.18379150410356e-15</v>
+        <v>1.248223082470309e-15</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>1.226328127942894e-15</v>
+        <v>1.292027703466038e-15</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>1.275655269023514e-15</v>
+        <v>1.338794750775479e-15</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>1.330950881582911e-15</v>
+        <v>1.388287471693656e-15</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>1.391392919858607e-15</v>
+        <v>1.440269113515603e-15</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>1.456159338087881e-15</v>
+        <v>1.494502923536152e-15</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>1.524428090508249e-15</v>
+        <v>1.550752149050336e-15</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>1.595377131357243e-15</v>
+        <v>1.608780037353199e-15</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>1.668184414872118e-15</v>
+        <v>1.668349835739554e-15</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>1.742027895290401e-15</v>
+        <v>1.729224791504444e-15</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>1.816085526849534e-15</v>
+        <v>1.791168151942836e-15</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>1.889535263787051e-15</v>
+        <v>1.853943164349778e-15</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>1.961555060340198e-15</v>
+        <v>1.917313076020074e-15</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>2.031345345843541e-15</v>
+        <v>1.981041905686949e-15</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>2.098558517975238e-15</v>
+        <v>2.044909185504326e-15</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>2.163265553826615e-15</v>
+        <v>2.108708815000551e-15</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>2.225553215468259e-15</v>
+        <v>2.172235235509914e-15</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>2.285508264970659e-15</v>
+        <v>2.235282888366618e-15</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>2.343217464404385e-15</v>
+        <v>2.29764621490495e-15</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>2.398767575839776e-15</v>
+        <v>2.359119656458949e-15</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>2.452245361347403e-15</v>
+        <v>2.419497654362902e-15</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>2.503737582997824e-15</v>
+        <v>2.47857464995109e-15</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>2.553331002861398e-15</v>
+        <v>2.536145084557561e-15</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>2.601112383008684e-15</v>
+        <v>2.5920033995166e-15</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>2.647168485510176e-15</v>
+        <v>2.645944036162408e-15</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>2.691586072436424e-15</v>
+        <v>2.697761435829259e-15</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>2.734451905857803e-15</v>
+        <v>2.747250039851219e-15</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>2.775852747844865e-15</v>
+        <v>2.794204289562561e-15</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>2.815875360468156e-15</v>
+        <v>2.838418626297549e-15</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>2.854574323381599e-15</v>
+        <v>2.879700485331291e-15</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>2.891788827711424e-15</v>
+        <v>2.917944267000622e-15</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>2.927269664501774e-15</v>
+        <v>2.953080063973119e-15</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>2.960767355270835e-15</v>
+        <v>2.985038077739704e-15</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>2.992032421536934e-15</v>
+        <v>3.013748509791441e-15</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>3.02081538481835e-15</v>
+        <v>3.039141561619345e-15</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>3.046866766633394e-15</v>
+        <v>3.061147434714455e-15</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>3.069937088500277e-15</v>
+        <v>3.079696330567732e-15</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>3.089776871937313e-15</v>
+        <v>3.094718450670217e-15</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>3.106136638462803e-15</v>
+        <v>3.106143996512943e-15</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>3.11876690959498e-15</v>
+        <v>3.113903169586891e-15</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>3.127418206852148e-15</v>
+        <v>3.117926171383095e-15</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>3.131841051752587e-15</v>
+        <v>3.118143203392569e-15</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>3.131785965814571e-15</v>
+        <v>3.114484467106321e-15</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>3.127003470556381e-15</v>
+        <v>3.106880164015375e-15</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>3.117282078118518e-15</v>
+        <v>3.095287109571648e-15</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>3.102898707402374e-15</v>
+        <v>3.080004267833193e-15</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>3.084469107180972e-15</v>
+        <v>3.061567966829226e-15</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>3.062615841978321e-15</v>
+        <v>3.04051930929701e-15</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>3.037961476318414e-15</v>
+        <v>3.017399397973793e-15</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>3.011128574725344e-15</v>
+        <v>2.992749335596915e-15</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>2.982739701723104e-15</v>
+        <v>2.967110224903627e-15</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>2.95341742183572e-15</v>
+        <v>2.941023168631208e-15</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>2.92378429958718e-15</v>
+        <v>2.915029269516904e-15</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>2.894462899501589e-15</v>
+        <v>2.889669630298063e-15</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>2.866075786102934e-15</v>
+        <v>2.86548535371193e-15</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>2.839245523915206e-15</v>
+        <v>2.843017542495756e-15</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>2.814576978131113e-15</v>
+        <v>2.822790322237528e-15</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>2.792239725115418e-15</v>
+        <v>2.804910290694387e-15</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>2.771951781759918e-15</v>
+        <v>2.789050911035227e-15</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>2.753410210122123e-15</v>
+        <v>2.774865546610301e-15</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>2.736312072259611e-15</v>
+        <v>2.762007560769903e-15</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>2.720354430229892e-15</v>
+        <v>2.750130316864281e-15</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>2.705234346090479e-15</v>
+        <v>2.738887178243685e-15</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>2.690648881898945e-15</v>
+        <v>2.727931508258406e-15</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>2.6762950997128e-15</v>
+        <v>2.716916670258695e-15</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>2.661870061589562e-15</v>
+        <v>2.7054960275948e-15</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>2.647070829586799e-15</v>
+        <v>2.693322943617014e-15</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>2.631594465762026e-15</v>
+        <v>2.680050781675586e-15</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>2.615138032172774e-15</v>
+        <v>2.665332905120783e-15</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>2.597398590876553e-15</v>
+        <v>2.648822677302841e-15</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>2.578073203930945e-15</v>
+        <v>2.630173461572072e-15</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>2.556858933393456e-15</v>
+        <v>2.609038621278716e-15</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>2.53345284132159e-15</v>
+        <v>2.585071519773007e-15</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>2.507551989772939e-15</v>
+        <v>2.55792552040527e-15</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>2.478853440805008e-15</v>
+        <v>2.527253986525737e-15</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>2.44705425647533e-15</v>
+        <v>2.492710281484675e-15</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>2.411851498841389e-15</v>
+        <v>2.453947768632295e-15</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>2.37294222996081e-15</v>
+        <v>2.410619811318959e-15</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>2.330023511891082e-15</v>
+        <v>2.362379772894886e-15</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>2.282792406689674e-15</v>
+        <v>2.308881016710266e-15</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>2.230945976414241e-15</v>
+        <v>2.249776906115501e-15</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>2.174181283122259e-15</v>
+        <v>2.184720804460791e-15</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>2.112460759058241e-15</v>
+        <v>2.113725072144207e-15</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>2.047126268579934e-15</v>
+        <v>2.038668187464767e-15</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>1.979966487116028e-15</v>
+        <v>1.96203308190897e-15</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>1.912770319331704e-15</v>
+        <v>1.886302997078171e-15</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>1.847326669892143e-15</v>
+        <v>1.813961174573727e-15</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>1.785424443462782e-15</v>
+        <v>1.747490855997277e-15</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>1.728852544708797e-15</v>
+        <v>1.689375282950173e-15</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>1.679399878295395e-15</v>
+        <v>1.64209769703381e-15</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>1.638855348887971e-15</v>
+        <v>1.608141339849764e-15</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>1.609007861151719e-15</v>
+        <v>1.589989452999415e-15</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>1.591646319751903e-15</v>
+        <v>1.590125278084209e-15</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>1.588559629353793e-15</v>
+        <v>1.611032056705638e-15</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>1.601536694622664e-15</v>
+        <v>1.655193030465099e-15</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>2.563877924820697e-16</v>
+        <v>2.579418518040803e-16</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>3.314232441081888e-16</v>
+        <v>3.344041044185775e-16</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>3.163980459825585e-16</v>
+        <v>3.240195374010392e-16</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>4.320704250410813e-16</v>
+        <v>4.352934248193896e-16</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>5.420317619356723e-16</v>
+        <v>5.396028526183992e-16</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>5.534527754065576e-16</v>
+        <v>5.512706274833833e-16</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>9.05112152644796e-16</v>
+        <v>9.084982646352615e-16</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>2.390934933159962e-15</v>
+        <v>2.399469290331351e-15</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>4.82390715446425e-15</v>
+        <v>4.836949175745522e-15</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>5.986651779528156e-15</v>
+        <v>6.008990660710517e-15</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>6.311070422018055e-15</v>
+        <v>6.324539383319505e-15</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>6.327679262752596e-15</v>
+        <v>6.316741741358113e-15</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>6.105755971760013e-15</v>
+        <v>6.089791949555563e-15</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>5.785229319323241e-15</v>
+        <v>5.783295257244067e-15</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>5.537407693387492e-15</v>
+        <v>5.547197463461494e-15</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>5.379816945347899e-15</v>
+        <v>5.383376435417736e-15</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>5.307042086555036e-15</v>
+        <v>5.291403131976422e-15</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>5.394046678527629e-15</v>
+        <v>5.398860820867078e-15</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>5.264477058351443e-15</v>
+        <v>5.277812543833317e-15</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>5.120169644407812e-15</v>
+        <v>5.113244827422754e-15</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>5.171359939158028e-15</v>
+        <v>5.15857357162657e-15</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>5.134008179948761e-15</v>
+        <v>5.123892531861466e-15</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>5.034532191060592e-15</v>
+        <v>5.029644560562176e-15</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>4.938167892550304e-15</v>
+        <v>4.937207591204905e-15</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>4.835998446175607e-15</v>
+        <v>4.837370125675864e-15</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>4.711073849148667e-15</v>
+        <v>4.713273525928151e-15</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>4.546975703649703e-15</v>
+        <v>4.548628084093323e-15</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>4.332709707543455e-15</v>
+        <v>4.332949026250601e-15</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>4.060452601864924e-15</v>
+        <v>4.059145267901195e-15</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>3.722838337144948e-15</v>
+        <v>3.720580509536065e-15</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>3.328722890167909e-15</v>
+        <v>3.326637394228379e-15</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>2.90803425862702e-15</v>
+        <v>2.907506785168443e-15</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>2.492108621778545e-15</v>
+        <v>2.49477009807381e-15</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>2.108637127984353e-15</v>
+        <v>2.11605903888325e-15</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>1.761272377603906e-15</v>
+        <v>1.772957444295254e-15</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>1.443967748240222e-15</v>
+        <v>1.456547757923105e-15</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>1.15615201032337e-15</v>
+        <v>1.165149350108363e-15</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>9.086106806589792e-16</v>
+        <v>9.120784531461196e-16</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>7.129891829400307e-16</v>
+        <v>7.118730425093444e-16</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>5.701844697790002e-16</v>
+        <v>5.665827526128684e-16</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>4.712358351612605e-16</v>
+        <v>4.668038863188607e-16</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>4.068177350955548e-16</v>
+        <v>4.02708851681655e-16</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>3.676046255907032e-16</v>
+        <v>3.644700567556607e-16</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>3.44270962655436e-16</v>
+        <v>3.422599095951976e-16</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>3.278521116158238e-16</v>
+        <v>3.266349738837905e-16</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>3.14341489541083e-16</v>
+        <v>3.134292151217464e-16</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>3.033349927189626e-16</v>
+        <v>3.023111151391151e-16</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>2.945096128128808e-16</v>
+        <v>2.930354745268363e-16</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>2.875423414862596e-16</v>
+        <v>2.853570938758532e-16</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>2.821101704025302e-16</v>
+        <v>2.790307737771192e-16</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>2.778900912251142e-16</v>
+        <v>2.738113148215767e-16</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>2.745590956174363e-16</v>
+        <v>2.69453517600172e-16</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>2.717941752429204e-16</v>
+        <v>2.657121827038498e-16</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>2.693149393313942e-16</v>
+        <v>2.623735283065487e-16</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>2.670521245565722e-16</v>
+        <v>2.593794153030301e-16</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>2.650017272869639e-16</v>
+        <v>2.567198139018956e-16</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>2.631597629962622e-16</v>
+        <v>2.543847083960506e-16</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>2.615222471581579e-16</v>
+        <v>2.523640830783972e-16</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>2.600851952463424e-16</v>
+        <v>2.506479222418387e-16</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>2.588446227345064e-16</v>
+        <v>2.492262101792777e-16</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>2.577965450963427e-16</v>
+        <v>2.480889311836187e-16</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>2.569369778055422e-16</v>
+        <v>2.472260695477642e-16</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>2.562619363357961e-16</v>
+        <v>2.466276095646175e-16</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>2.557674361607962e-16</v>
+        <v>2.46283535527082e-16</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>2.554494927542339e-16</v>
+        <v>2.46183831728061e-16</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>2.553041215898005e-16</v>
+        <v>2.463184824604574e-16</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>2.553273381411876e-16</v>
+        <v>2.466774720171748e-16</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>2.555151578820865e-16</v>
+        <v>2.472507846911162e-16</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>2.558635962861888e-16</v>
+        <v>2.480284047751849e-16</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>2.563686688271861e-16</v>
+        <v>2.490003165622847e-16</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>2.570263909787694e-16</v>
+        <v>2.501565043453178e-16</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>2.578327782146305e-16</v>
+        <v>2.51486952417188e-16</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>2.587838460084607e-16</v>
+        <v>2.529816450707984e-16</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>2.59875609833952e-16</v>
+        <v>2.54630566599053e-16</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>2.611040851647949e-16</v>
+        <v>2.564237012948538e-16</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>2.624652874746814e-16</v>
+        <v>2.583510334511048e-16</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>2.639552322373036e-16</v>
+        <v>2.604025473607097e-16</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>2.655699349263515e-16</v>
+        <v>2.625682273165704e-16</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>2.673054110155173e-16</v>
+        <v>2.648380576115907e-16</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>2.691576759784925e-16</v>
+        <v>2.672020225386741e-16</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>2.711227452889694e-16</v>
+        <v>2.696501063907249e-16</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>2.731966344206376e-16</v>
+        <v>2.72172293460644e-16</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>2.753753588471897e-16</v>
+        <v>2.747585680413359e-16</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>2.776549340423169e-16</v>
+        <v>2.773989144257038e-16</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>2.800313754797119e-16</v>
+        <v>2.800833169066521e-16</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>2.825006986330638e-16</v>
+        <v>2.828017597770817e-16</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>2.850589189760654e-16</v>
+        <v>2.855442273298971e-16</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>2.877020533447785e-16</v>
+        <v>2.883007059312169e-16</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>2.90430986371139e-16</v>
+        <v>2.910685896184195e-16</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>2.93262403723375e-16</v>
+        <v>2.938693179898316e-16</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>2.962161915565812e-16</v>
+        <v>2.967292010523159e-16</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>2.993122360258484e-16</v>
+        <v>2.996745488127311e-16</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>3.025704232862716e-16</v>
+        <v>3.027316712779395e-16</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>3.060106394929442e-16</v>
+        <v>3.059268784548024e-16</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>3.096527708009616e-16</v>
+        <v>3.092864803501828e-16</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>3.135167033654138e-16</v>
+        <v>3.128367869709387e-16</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>3.176223233413962e-16</v>
+        <v>3.166041083239329e-16</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>3.219895168840021e-16</v>
+        <v>3.206147544160267e-16</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>3.266381701483273e-16</v>
+        <v>3.248950352540833e-16</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>3.315881692894612e-16</v>
+        <v>3.2947126084496e-16</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>3.368594004624993e-16</v>
+        <v>3.3436974119552e-16</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>3.424717498225377e-16</v>
+        <v>3.39616786312627e-16</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>3.484451035246649e-16</v>
+        <v>3.452387062031375e-16</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>3.54799347723977e-16</v>
+        <v>3.512618108739151e-16</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>3.615543685755674e-16</v>
+        <v>3.577124103318208e-16</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>3.687300522345331e-16</v>
+        <v>3.646168145837194e-16</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>3.76346284855961e-16</v>
+        <v>3.720013336364657e-16</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>3.844229525949478e-16</v>
+        <v>3.79892277496924e-16</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>3.929799416065911e-16</v>
+        <v>3.883159561719595e-16</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>4.020371380459766e-16</v>
+        <v>3.972986796684258e-16</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>4.116144280682018e-16</v>
+        <v>4.068667579931879e-16</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>4.217316978283599e-16</v>
+        <v>4.17046501153107e-16</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>4.324088334815498e-16</v>
+        <v>4.278642191550494e-16</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>4.436657211828549e-16</v>
+        <v>4.393462220058664e-16</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>4.555440991524361e-16</v>
+        <v>4.51538418141188e-16</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>4.682024583315144e-16</v>
+        <v>4.64591427834183e-16</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>4.818381223485848e-16</v>
+        <v>4.786906991719139e-16</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>4.966484409837299e-16</v>
+        <v>4.940217036959815e-16</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>5.128307640170269e-16</v>
+        <v>5.107699129479802e-16</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>5.305824412285612e-16</v>
+        <v>5.291207984695132e-16</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>5.501008223983944e-16</v>
+        <v>5.49259831802159e-16</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>5.715832573066107e-16</v>
+        <v>5.713724844875196e-16</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>5.952270957332988e-16</v>
+        <v>5.956442280672015e-16</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>6.212296874585145e-16</v>
+        <v>6.222605340827774e-16</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>6.497883822623451e-16</v>
+        <v>6.514068740758525e-16</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>6.81100529924868e-16</v>
+        <v>6.832687195880213e-16</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>7.153634802261763e-16</v>
+        <v>7.180315421608952e-16</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>7.527745829463159e-16</v>
+        <v>7.558808133360367e-16</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>7.935311878653794e-16</v>
+        <v>7.970020046550562e-16</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>8.378306447634645e-16</v>
+        <v>8.415805876595691e-16</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>8.858703034206084e-16</v>
+        <v>8.898020338911298e-16</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>9.379465573779305e-16</v>
+        <v>9.41952592877604e-16</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>9.954079023259198e-16</v>
+        <v>9.993890382752809e-16</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>1.060237259702351e-15</v>
+        <v>1.064113678083826e-15</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>1.134426299566728e-15</v>
+        <v>1.138137722110266e-15</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>1.219966691978642e-15</v>
+        <v>1.223472380161711e-15</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>1.318850106997654e-15</v>
+        <v>1.322128862045242e-15</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>1.433068214683383e-15</v>
+        <v>1.436118377567999e-15</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>1.564612685095289e-15</v>
+        <v>1.56745213653696e-15</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>1.715475188292982e-15</v>
+        <v>1.718141348759259e-15</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>1.887647394336108e-15</v>
+        <v>1.890197224042058e-15</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>2.083120973284075e-15</v>
+        <v>2.085630972192288e-15</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>2.303887595196517e-15</v>
+        <v>2.306453803017103e-15</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>2.551938930133117e-15</v>
+        <v>2.554676926323704e-15</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>2.828755232594106e-15</v>
+        <v>2.831797812534877e-15</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>3.129552100456117e-15</v>
+        <v>3.133020809429895e-15</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>3.44534637003755e-15</v>
+        <v>3.449332424445879e-15</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>3.767077491771694e-15</v>
+        <v>3.771641427500532e-15</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>4.085684916091393e-15</v>
+        <v>4.09085658851112e-15</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>4.392108093429932e-15</v>
+        <v>4.397886677395343e-15</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>4.677286474220455e-15</v>
+        <v>4.683640464070762e-15</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>4.932159508896204e-15</v>
+        <v>4.939026718455038e-15</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>5.14766664789009e-15</v>
+        <v>5.154954210465498e-15</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>5.314747341635375e-15</v>
+        <v>5.322331710019824e-15</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>5.424341040565233e-15</v>
+        <v>5.432067987035605e-15</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>5.467387195112705e-15</v>
+        <v>5.4750718114303e-15</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>5.434825255710992e-15</v>
+        <v>5.442251953121529e-15</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>5.318449921252435e-15</v>
+        <v>5.325376096882852e-15</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>5.122223134017748e-15</v>
+        <v>5.128431331089726e-15</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>4.859161191642668e-15</v>
+        <v>4.864497914929307e-15</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>4.54249597076241e-15</v>
+        <v>4.546872610761962e-15</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>4.185459348012093e-15</v>
+        <v>4.188852180947955e-15</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>3.801283200027336e-15</v>
+        <v>3.803733387848051e-15</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>3.403199403443273e-15</v>
+        <v>3.404812993822532e-15</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>3.004439834895192e-15</v>
+        <v>3.005387761231833e-15</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>2.618236371018214e-15</v>
+        <v>2.618754452436221e-15</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>2.257820888447979e-15</v>
+        <v>2.258209829796485e-15</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>1.936425263819597e-15</v>
+        <v>1.937050655672882e-15</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>1.667281373768252e-15</v>
+        <v>1.668573692425741e-15</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>1.463621094929477e-15</v>
+        <v>1.466075702415744e-15</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>1.338676303938429e-15</v>
+        <v>1.342853448003195e-15</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>1.301694161600654e-15</v>
+        <v>1.308156098978032e-15</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>1.306162407522381e-15</v>
+        <v>1.314593549301055e-15</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>1.264539137233018e-15</v>
+        <v>1.273098622438886e-15</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>1.088475829966746e-15</v>
+        <v>1.093785914306257e-15</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>7.674304582513022e-16</v>
+        <v>7.664036073532866e-16</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>4.950920438428206e-16</v>
+        <v>4.897195081061517e-16</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>3.838578918972395e-16</v>
+        <v>3.787974550700024e-16</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>3.58664599992721e-16</v>
+        <v>3.560177919101734e-16</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>3.382372263399318e-16</v>
+        <v>3.374446968933583e-16</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>3.047675811541727e-16</v>
+        <v>3.047704187243061e-16</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>2.63065979810896e-16</v>
+        <v>2.630759695621471e-16</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>2.179704750508824e-16</v>
+        <v>2.174710435090444e-16</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>1.742370239979031e-16</v>
+        <v>1.72979261182687e-16</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>1.350027621053958e-16</v>
+        <v>1.329269830183127e-16</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>1.019228642786148e-16</v>
+        <v>9.908680187039634e-17</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>7.659784899933712e-17</v>
+        <v>7.317400584330815e-17</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>6.062823474937301e-17</v>
+        <v>5.690388304145205e-17</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>5.561454001049588e-17</v>
+        <v>5.199172156919446e-17</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>6.315728326449245e-17</v>
+        <v>6.015280953091529e-17</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>8.48569829931626e-17</v>
+        <v>8.310243503100841e-17</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>1.223141576782741e-16</v>
+        <v>1.225558861738337e-16</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>1.799718495167731e-16</v>
+        <v>1.829341225808577e-16</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>2.952792065224407e-16</v>
+        <v>3.000751435704431e-16</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>5.075863804953789e-16</v>
+        <v>5.113792304218741e-16</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>7.604611843275817e-16</v>
+        <v>7.618491697309601e-16</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>9.692174491547289e-16</v>
+        <v>9.692475032229673e-16</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>1.105284355862365e-15</v>
+        <v>1.10598534440462e-15</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>1.211590855155246e-15</v>
+        <v>1.214104566305528e-15</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>1.335705339765932e-15</v>
+        <v>1.340165208558849e-15</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>1.525191934836693e-15</v>
+        <v>1.530723107612615e-15</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>1.805083553152116e-15</v>
+        <v>1.810142921717344e-15</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>2.1252878974357e-15</v>
+        <v>2.128797865737145e-15</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>2.420074194713453e-15</v>
+        <v>2.421658689926972e-15</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>2.623711672011447e-15</v>
+        <v>2.623696144541846e-15</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>2.677608226372959e-15</v>
+        <v>2.676974633547258e-15</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>2.619173071728131e-15</v>
+        <v>2.618954495459982e-15</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>2.554549717912608e-15</v>
+        <v>2.555396927641867e-15</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>2.591375385503812e-15</v>
+        <v>2.593547418887228e-15</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>2.809215524451497e-15</v>
+        <v>2.812674610440339e-15</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>3.167114280014711e-15</v>
+        <v>3.171933374713912e-15</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>3.591778168917545e-15</v>
+        <v>3.598250303416465e-15</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>4.009913312442402e-15</v>
+        <v>4.018551594151984e-15</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>4.348226017306084e-15</v>
+        <v>4.35976362854801e-15</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>4.553566864959626e-15</v>
+        <v>4.568803798350302e-15</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>4.648354230460994e-15</v>
+        <v>4.667582342976643e-15</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>4.672723054965214e-15</v>
+        <v>4.695591274173637e-15</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>4.666808279627194e-15</v>
+        <v>4.692322603687769e-15</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>4.669415230302907e-15</v>
+        <v>4.695973762165909e-15</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>4.698474922176511e-15</v>
+        <v>4.724417889398107e-15</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>4.755333203246161e-15</v>
+        <v>4.779379962626833e-15</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>4.840878386641771e-15</v>
+        <v>4.862139479869605e-15</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>4.955998785493128e-15</v>
+        <v>4.973975939143825e-15</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>5.10158271293013e-15</v>
+        <v>5.116168838466999e-15</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>5.27851848208264e-15</v>
+        <v>5.289997675856604e-15</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>5.487694406080626e-15</v>
+        <v>5.496741949330216e-15</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>5.729971538416303e-15</v>
+        <v>5.737652375567059e-15</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>6.002660229804698e-15</v>
+        <v>6.010230759429405e-15</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>6.296034799903162e-15</v>
+        <v>6.304550106009001e-15</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>6.599541280151372e-15</v>
+        <v>6.60980889507631e-15</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>6.902625701989404e-15</v>
+        <v>6.915205606402192e-15</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>7.194734096857204e-15</v>
+        <v>7.209938719757387e-15</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>7.465312496194833e-15</v>
+        <v>7.483206714912743e-15</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>7.703806931441993e-15</v>
+        <v>7.724208071638747e-15</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>7.899663434038754e-15</v>
+        <v>7.922141269706257e-15</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>8.042344323492998e-15</v>
+        <v>8.06622156697607e-15</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>8.124680038828003e-15</v>
+        <v>8.149133669790365e-15</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>8.146974442299636e-15</v>
+        <v>8.171260543643506e-15</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>8.110536229950833e-15</v>
+        <v>8.134020217970027e-15</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>8.016674097824457e-15</v>
+        <v>8.038830722204403e-15</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>7.866696741963534e-15</v>
+        <v>7.887110085781257e-15</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>7.661912858410955e-15</v>
+        <v>7.680276338135083e-15</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>7.403631143209525e-15</v>
+        <v>7.419747508700293e-15</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>7.093160292402411e-15</v>
+        <v>7.106941626911653e-15</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>6.732192644304512e-15</v>
+        <v>6.743657437781473e-15</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>6.328255386186477e-15</v>
+        <v>6.337484022929133e-15</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>5.893416171681204e-15</v>
+        <v>5.900516292452169e-15</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>5.439862304182395e-15</v>
+        <v>5.444967893436048e-15</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>4.979781087083168e-15</v>
+        <v>4.983052472965647e-15</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>4.525359823776627e-15</v>
+        <v>4.526983678125839e-15</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>4.088785817656496e-15</v>
+        <v>4.088975156002106e-15</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>3.682246372115874e-15</v>
+        <v>3.681240553679314e-15</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>3.317928790548068e-15</v>
+        <v>3.315993518242533e-15</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>3.004950335431061e-15</v>
+        <v>3.002369749100803e-15</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>2.739767222690472e-15</v>
+        <v>2.736811291120191e-15</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>2.515572251017405e-15</v>
+        <v>2.512488367139001e-15</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>2.325558215762336e-15</v>
+        <v>2.322571196646302e-15</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>2.162917912275674e-15</v>
+        <v>2.1602299991311e-15</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>2.02084413590804e-15</v>
+        <v>2.018634994082611e-15</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>1.892529682009833e-15</v>
+        <v>1.89095640098983e-15</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>1.771167345931474e-15</v>
+        <v>1.770364439341774e-15</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>1.649971797983727e-15</v>
+        <v>1.650051141300806e-15</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>1.526260407532049e-15</v>
+        <v>1.527299556014421e-15</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>1.406254554927727e-15</v>
+        <v>1.408271390238995e-15</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>1.297342626031503e-15</v>
+        <v>1.300292033296271e-15</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>1.20691300670395e-15</v>
+        <v>1.210686874507832e-15</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>1.142354082805698e-15</v>
+        <v>1.146781303195311e-15</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>1.111054240197369e-15</v>
+        <v>1.115900708680339e-15</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>1.120401864739625e-15</v>
+        <v>1.125370480284581e-15</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>1.177785342293072e-15</v>
+        <v>1.182516007329651e-15</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>1.29044484879642e-15</v>
+        <v>1.294515609283705e-15</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>1.457318052626695e-15</v>
+        <v>1.460308963054531e-15</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>1.664802033049586e-15</v>
+        <v>1.666391621841839e-15</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>1.898252587540882e-15</v>
+        <v>1.898225866860001e-15</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>2.143025513576423e-15</v>
+        <v>2.141273979323432e-15</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>2.384476608631708e-15</v>
+        <v>2.380998240446214e-15</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>2.607961670182572e-15</v>
+        <v>2.602860931442761e-15</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>2.79883649570482e-15</v>
+        <v>2.792324333527455e-15</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>2.942456882674e-15</v>
+        <v>2.934850727914427e-15</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>3.027013018791652e-15</v>
+        <v>3.018716590634345e-15</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>3.055529153230649e-15</v>
+        <v>3.046926764517209e-15</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>3.035866119329165e-15</v>
+        <v>3.02728821524927e-15</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>2.975887412158878e-15</v>
+        <v>2.967610551285072e-15</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>2.883456526791453e-15</v>
+        <v>2.875703381079144e-15</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>2.766436958298547e-15</v>
+        <v>2.759376313086009e-15</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>2.632692201751759e-15</v>
+        <v>2.626438955760133e-15</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>2.490085752222871e-15</v>
+        <v>2.484700917556164e-15</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>2.346480991208138e-15</v>
+        <v>2.341971694114172e-15</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>2.208219006886864e-15</v>
+        <v>2.204548687079749e-15</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>2.076302320057561e-15</v>
+        <v>2.073426498969194e-15</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>1.95056382467799e-15</v>
+        <v>1.948437941925039e-15</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>1.830836414705976e-15</v>
+        <v>1.829415828089879e-15</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>1.716952984099293e-15</v>
+        <v>1.716192969606259e-15</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>1.608746426815869e-15</v>
+        <v>1.608602178616877e-15</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>1.506049636813476e-15</v>
+        <v>1.506476267264274e-15</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>1.40869550804994e-15</v>
+        <v>1.409648047691047e-15</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>1.316516934483044e-15</v>
+        <v>1.317950332039749e-15</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>1.229346810070695e-15</v>
+        <v>1.23121593245306e-15</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>1.147018028770678e-15</v>
+        <v>1.149277661073529e-15</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>1.069363484540781e-15</v>
+        <v>1.071968330043721e-15</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>9.96216071338901e-16</v>
+        <v>9.991207515062976e-16</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>9.274086831228255e-16</v>
+        <v>9.305677376038195e-16</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>8.627742138503515e-16</v>
+        <v>8.661421004788534e-16</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>8.021455574793621e-16</v>
+        <v>8.056766522740523e-16</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>7.453556079676517e-16</v>
+        <v>7.490042051319808e-16</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>6.922402407249543e-16</v>
+        <v>6.959608328681948e-16</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>6.426552479603928e-16</v>
+        <v>6.464043980401156e-16</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>5.964645823785482e-16</v>
+        <v>6.002016906902209e-16</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>5.535322213378551e-16</v>
+        <v>5.572195278320165e-16</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>5.137221421967705e-16</v>
+        <v>5.173247264790317e-16</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>4.768983223137364e-16</v>
+        <v>4.803841036447797e-16</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>4.429247390472427e-16</v>
+        <v>4.462644763428228e-16</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>4.116653697557298e-16</v>
+        <v>4.148326615866725e-16</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>3.829841917976424e-16</v>
+        <v>3.859554763898459e-16</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>3.567451825314638e-16</v>
+        <v>3.594997377658976e-16</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>3.328123193156378e-16</v>
+        <v>3.353322627283434e-16</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>3.110495795086125e-16</v>
+        <v>3.133198682907029e-16</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>2.913209404688646e-16</v>
+        <v>2.933293714665249e-16</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>2.734903795548412e-16</v>
+        <v>2.752275892693282e-16</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>2.574218741249929e-16</v>
+        <v>2.588813387126347e-16</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>2.429794015377975e-16</v>
+        <v>2.441574368099947e-16</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>2.300269391516862e-16</v>
+        <v>2.309227005749107e-16</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>2.1842846432513e-16</v>
+        <v>2.190439470209253e-16</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>2.080479544165948e-16</v>
+        <v>2.083879931615767e-16</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>1.987493867845191e-16</v>
+        <v>1.988216560103747e-16</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>1.903967387873773e-16</v>
+        <v>1.902117525808658e-16</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>1.828539877836113e-16</v>
+        <v>1.824250998865633e-16</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>1.759851111316863e-16</v>
+        <v>1.753285149410043e-16</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>1.69654086190065e-16</v>
+        <v>1.687888147577236e-16</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>1.637248903171932e-16</v>
+        <v>1.626728163502382e-16</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>1.58061500871534e-16</v>
+        <v>1.568473367320833e-16</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>1.525348624658199e-16</v>
+        <v>1.511859253803316e-16</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>1.470971532285842e-16</v>
+        <v>1.456406277852678e-16</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>1.417530738065321e-16</v>
+        <v>1.402142419897374e-16</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>1.365082053485763e-16</v>
+        <v>1.349104168665947e-16</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>1.313681290036153e-16</v>
+        <v>1.297328012886794e-16</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>1.26338425920562e-16</v>
+        <v>1.246850441288458e-16</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>1.214246772483289e-16</v>
+        <v>1.197707942599474e-16</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>1.166324641358152e-16</v>
+        <v>1.14993700554825e-16</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>1.119673677319335e-16</v>
+        <v>1.103574118863323e-16</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>1.074349691855959e-16</v>
+        <v>1.058655771273228e-16</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>1.030408496457023e-16</v>
+        <v>1.015218451506376e-16</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>9.879059026116873e-17</v>
+        <v>9.732986482913396e-17</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>9.468977218089553e-17</v>
+        <v>9.329328503565372e-17</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>9.074397655379472e-17</v>
+        <v>8.941575464305009e-17</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>8.695878452877777e-17</v>
+        <v>8.570092252417571e-17</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>8.333977725474585e-17</v>
+        <v>8.215243755187324e-17</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>7.989253588061062e-17</v>
+        <v>7.877394859899556e-17</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>7.662248614459388e-17</v>
+        <v>7.556898195560196e-17</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>7.353056349367872e-17</v>
+        <v>7.253752211907443e-17</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>7.061263633479257e-17</v>
+        <v>6.967555687379896e-17</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>6.786430178614019e-17</v>
+        <v>6.697886002062232e-17</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>6.528115696591893e-17</v>
+        <v>6.444320536038404e-17</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>6.285879899233583e-17</v>
+        <v>6.206436669393301e-17</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>6.059282498358888e-17</v>
+        <v>5.983811782210944e-17</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>5.847883205788266e-17</v>
+        <v>5.776023254575989e-17</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>5.651241733342122e-17</v>
+        <v>5.582648466573041e-17</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>5.468917792840341e-17</v>
+        <v>5.403264798286196e-17</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>5.300471096103333e-17</v>
+        <v>5.237449629800068e-17</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>5.145461354951471e-17</v>
+        <v>5.084780341199232e-17</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>5.00344828120471e-17</v>
+        <v>4.944834312567849e-17</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>4.87399158668343e-17</v>
+        <v>4.817188923990504e-17</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>4.756650983207965e-17</v>
+        <v>4.701421555551733e-17</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>4.65098618259834e-17</v>
+        <v>4.597109587335769e-17</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>4.556556896674897e-17</v>
+        <v>4.503830399427157e-17</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>4.472922837257945e-17</v>
+        <v>4.421161371910411e-17</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>4.399643716167565e-17</v>
+        <v>4.348679884869816e-17</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>4.336279245224126e-17</v>
+        <v>4.285963318389947e-17</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>4.282389136247748e-17</v>
+        <v>4.232589052555127e-17</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>4.237533101058726e-17</v>
+        <v>4.188134467449857e-17</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>4.201270851477326e-17</v>
+        <v>4.152176943158606e-17</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>4.173162099323715e-17</v>
+        <v>4.124293859765747e-17</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>4.152766556418165e-17</v>
+        <v>4.104062597355756e-17</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>4.139643934580916e-17</v>
+        <v>4.091060536013078e-17</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>4.133353945632185e-17</v>
+        <v>4.084865055822134e-17</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>4.133456301392215e-17</v>
+        <v>4.085053536867373e-17</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>4.139510713681237e-17</v>
+        <v>4.091203359233229e-17</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>4.151076894319496e-17</v>
+        <v>4.102891903004151e-17</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>4.16771455512722e-17</v>
+        <v>4.119696548264574e-17</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>4.188983407924624e-17</v>
+        <v>4.141194675098917e-17</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>4.214443164531985e-17</v>
+        <v>4.166963663591659e-17</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>4.243653536769487e-17</v>
+        <v>4.196580893827193e-17</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>4.276174236457419e-17</v>
+        <v>4.229623745890009e-17</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>4.311597933233434e-17</v>
+        <v>4.26570193351861e-17</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>4.350020821306059e-17</v>
+        <v>4.304919159148611e-17</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>4.391932086413993e-17</v>
+        <v>4.347764674174312e-17</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>4.437831338948668e-17</v>
+        <v>4.394737957218063e-17</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>4.4882181893015e-17</v>
+        <v>4.446338486902208e-17</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>4.543592247864046e-17</v>
+        <v>4.503065741849227e-17</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>4.604453125027726e-17</v>
+        <v>4.565419200681464e-17</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>4.671300431183943e-17</v>
+        <v>4.633898342021242e-17</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>4.744633776724281e-17</v>
+        <v>4.709002644491077e-17</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>4.824952772040074e-17</v>
+        <v>4.791231586713217e-17</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>4.912757027522928e-17</v>
+        <v>4.8810846473102e-17</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>5.008546153564239e-17</v>
+        <v>4.979061304904343e-17</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>5.112819760555376e-17</v>
+        <v>5.085661038117937e-17</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>5.226077458887991e-17</v>
+        <v>5.201383325573559e-17</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>5.348818858953457e-17</v>
+        <v>5.326727645893508e-17</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>5.481543571143116e-17</v>
+        <v>5.462193477700045e-17</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>5.624751205848671e-17</v>
+        <v>5.608280299615803e-17</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>5.778941373461472e-17</v>
+        <v>5.765487590263052e-17</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>5.944613684372829e-17</v>
+        <v>5.934314828264024e-17</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>6.122267748974505e-17</v>
+        <v>6.115261492241413e-17</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>6.312403177657823e-17</v>
+        <v>6.308827060817459e-17</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>6.515519580814055e-17</v>
+        <v>6.515511012614359e-17</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>6.732411374558012e-17</v>
+        <v>6.736105037598657e-17</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>6.967043342974127e-17</v>
+        <v>6.974543293513084e-17</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>7.225310006928611e-17</v>
+        <v>7.236672692616992e-17</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>7.513133230827126e-17</v>
+        <v>7.528367250077823e-17</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>7.836434879074358e-17</v>
+        <v>7.855500981062018e-17</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>8.201136816076093e-17</v>
+        <v>8.223947900737143e-17</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>8.613160906237269e-17</v>
+        <v>8.6395820242699e-17</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>9.078429013962645e-17</v>
+        <v>9.108277366826811e-17</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>9.602863003658273e-17</v>
+        <v>9.635907943575703e-17</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>1.019238473972896e-16</v>
+        <v>1.022834776968315e-16</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>1.085291608657929e-16</v>
+        <v>1.08914708603155e-16</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>1.159037890861567e-16</v>
+        <v>1.163115123064094e-16</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>1.241069507024273e-16</v>
+        <v>1.245326289582585e-16</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>1.331891531359707e-16</v>
+        <v>1.336280829280024e-16</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>1.431410247021949e-16</v>
+        <v>1.435879881366809e-16</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>1.539280215135071e-16</v>
+        <v>1.54377273126538e-16</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>1.655155125724342e-16</v>
+        <v>1.65960779284342e-16</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>1.778688668814744e-16</v>
+        <v>1.783033479968324e-16</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>1.90953453443123e-16</v>
+        <v>1.91369820650746e-16</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>2.047346412599111e-16</v>
+        <v>2.05125038632855e-16</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>2.191777993343346e-16</v>
+        <v>2.195338433298969e-16</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>2.342482966688873e-16</v>
+        <v>2.345610761286066e-16</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>2.498735124106502e-16</v>
+        <v>2.501339052276821e-16</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>2.658073364637008e-16</v>
+        <v>2.660074557158064e-16</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>2.817541625673425e-16</v>
+        <v>2.818877690959945e-16</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>2.974183807259153e-16</v>
+        <v>2.974808831674315e-16</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>3.125043809437033e-16</v>
+        <v>3.124928357292462e-16</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>3.267165532250451e-16</v>
+        <v>3.26629664580622e-16</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>3.397592875742381e-16</v>
+        <v>3.395974075207014e-16</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>3.513369739955839e-16</v>
+        <v>3.511021023486309e-16</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>3.611540024934151e-16</v>
+        <v>3.60849786863588e-16</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>3.689147630720319e-16</v>
+        <v>3.685464988647178e-16</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>3.743236457357419e-16</v>
+        <v>3.738982761511727e-16</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>3.770850404888664e-16</v>
+        <v>3.766111565221191e-16</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>3.769033373357106e-16</v>
+        <v>3.76391177776707e-16</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>3.734829262805909e-16</v>
+        <v>3.729443777140977e-16</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>3.665281973278123e-16</v>
+        <v>3.659767941334413e-16</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>3.55743540481688e-16</v>
+        <v>3.551944648338958e-16</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>3.408333457465444e-16</v>
+        <v>3.403034276146324e-16</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>3.216114286551017e-16</v>
+        <v>3.211186373105359e-16</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>2.986252014707605e-16</v>
+        <v>2.981852365151225e-16</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>2.727236202577008e-16</v>
+        <v>2.723485103700031e-16</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>2.447565680867247e-16</v>
+        <v>2.444546667156763e-16</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>2.155739280287309e-16</v>
+        <v>2.153499133927369e-16</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>1.860255831545155e-16</v>
+        <v>1.858804582416777e-16</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>1.569614165349542e-16</v>
+        <v>1.568925091030708e-16</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>1.292313112409207e-16</v>
+        <v>1.292322738174859e-16</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>1.03685150343214e-16</v>
+        <v>1.037459602254189e-16</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>8.117281691270947e-17</v>
+        <v>8.127977616744133e-17</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>6.254352648723682e-17</v>
+        <v>6.267926512457436e-17</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>4.827675252950431e-17</v>
+        <v>4.842198628037707e-17</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>3.786887065862496e-17</v>
+        <v>3.800707468533433e-17</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>3.065467135761027e-17</v>
+        <v>3.077284843998276e-17</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>2.596894510945405e-17</v>
+        <v>2.605762564484112e-17</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>2.314648239717231e-17</v>
+        <v>2.319972440045053e-17</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>2.152207370376674e-17</v>
+        <v>2.153746280733765e-17</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>2.04327075585478e-17</v>
+        <v>2.04113448975745e-17</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>1.943374118659089e-17</v>
+        <v>1.937903983695363e-17</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>1.84811807209285e-17</v>
+        <v>1.839665748061025e-17</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>1.757395134725617e-17</v>
+        <v>1.746299018346788e-17</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>1.671097825126931e-17</v>
+        <v>1.657683030044985e-17</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>1.589118661866099e-17</v>
+        <v>1.573697018647713e-17</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>1.511350163512666e-17</v>
+        <v>1.494220219647309e-17</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>1.43768484863616e-17</v>
+        <v>1.419131868536097e-17</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>1.368015235805911e-17</v>
+        <v>1.348311200806196e-17</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>1.302233843591451e-17</v>
+        <v>1.281637451949932e-17</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>1.240233190562299e-17</v>
+        <v>1.218989857459616e-17</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>1.181905795287807e-17</v>
+        <v>1.160247652827391e-17</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>1.127144176337496e-17</v>
+        <v>1.105290073545571e-17</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>1.075840852280874e-17</v>
+        <v>1.053996355106458e-17</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>1.027888341687312e-17</v>
+        <v>1.006245733002214e-17</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>9.83179163126362e-18</v>
+        <v>9.619174427251826e-18</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>9.416058351674054e-18</v>
+        <v>9.208907197675394e-18</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>9.030608763799487e-18</v>
+        <v>8.83044799621582e-18</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>8.674368053334865e-18</v>
+        <v>8.482589177795966e-18</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>8.34626140597418e-18</v>
+        <v>8.164123097337765e-18</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>8.045214007412404e-18</v>
+        <v>7.873842109764106e-18</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>7.770151043344409e-18</v>
+        <v>7.61053856999777e-18</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>7.519997699464343e-18</v>
+        <v>7.373004832960854e-18</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>7.293679161467099e-18</v>
+        <v>7.160033253576161e-18</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>7.090120615047487e-18</v>
+        <v>6.97041618676641e-18</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>6.90824724589978e-18</v>
+        <v>6.802945987453826e-18</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>6.74698423971894e-18</v>
+        <v>6.65641501056127e-18</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>6.605256782199325e-18</v>
+        <v>6.529615611011044e-18</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>6.481990059035716e-18</v>
+        <v>6.421340143725843e-18</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>6.376109255922846e-18</v>
+        <v>6.330380963628306e-18</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>6.286539558555157e-18</v>
+        <v>6.255530425640833e-18</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>6.212206152627392e-18</v>
+        <v>6.195580884686069e-18</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>6.152034223834235e-18</v>
+        <v>6.149324695686612e-18</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>6.104948957870217e-18</v>
+        <v>6.115554213564941e-18</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>6.069875540430034e-18</v>
+        <v>6.093061793243666e-18</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>6.045739157208344e-18</v>
+        <v>6.08063978964535e-18</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>6.031464993899736e-18</v>
+        <v>6.077080557692535e-18</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>6.02597823619888e-18</v>
+        <v>6.08117645230779e-18</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>6.0282040698004e-18</v>
+        <v>6.091719828413683e-18</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>6.037067680398946e-18</v>
+        <v>6.107503040932775e-18</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>6.051494570869123e-18</v>
+        <v>6.127318812915236e-18</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>6.070742044899359e-18</v>
+        <v>6.150344964367057e-18</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>6.095027389855772e-18</v>
+        <v>6.176873498191064e-18</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>6.124740500159282e-18</v>
+        <v>6.20739674968406e-18</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>6.160271270230883e-18</v>
+        <v>6.242407054142931e-18</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>6.202009594491503e-18</v>
+        <v>6.282396746864485e-18</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>6.250345367362035e-18</v>
+        <v>6.32785816314551e-18</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>6.305668483263514e-18</v>
+        <v>6.37928363828292e-18</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>6.368368836616845e-18</v>
+        <v>6.437165507573511e-18</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>6.438836321842905e-18</v>
+        <v>6.501996106314051e-18</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>6.517460833362767e-18</v>
+        <v>6.574267769801492e-18</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>6.604632265597316e-18</v>
+        <v>6.654472833332608e-18</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>6.700740512967408e-18</v>
+        <v>6.74310363220415e-18</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>6.806175469894161e-18</v>
+        <v>6.840652501713109e-18</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>6.921327030798329e-18</v>
+        <v>6.947611777156141e-18</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>7.046585090101066e-18</v>
+        <v>7.064473793830272e-18</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>7.182339542223217e-18</v>
+        <v>7.191730887032241e-18</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>7.328980281585591e-18</v>
+        <v>7.329875392058751e-18</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>7.486897202609395e-18</v>
+        <v>7.479399644206883e-18</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>7.656480199715453e-18</v>
+        <v>7.640795978773351e-18</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>7.838119167324533e-18</v>
+        <v>7.814556731054822e-18</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>8.032203999857918e-18</v>
+        <v>8.001174236348449e-18</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>8.239124591736383e-18</v>
+        <v>8.201140829950902e-18</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>8.459270837380681e-18</v>
+        <v>8.414948847158827e-18</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>8.693032631212145e-18</v>
+        <v>8.643090623269432e-18</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>8.940799867651303e-18</v>
+        <v>8.886058493579141e-18</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>9.202962441119547e-18</v>
+        <v>9.144344793385226e-18</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>9.479910246037601e-18</v>
+        <v>9.4184418579843e-18</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>9.77203317682615e-18</v>
+        <v>9.708842022672938e-18</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>1.007972112790665e-17</v>
+        <v>1.001603762274848e-17</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>1.040336399369981e-17</v>
+        <v>1.034052099350752e-17</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>1.074335166862624e-17</v>
+        <v>1.068278447024657e-17</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>1.110007404710751e-17</v>
+        <v>1.104332038826307e-17</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>1.147392102356428e-17</v>
+        <v>1.142262108285356e-17</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>1.18652824924171e-17</v>
+        <v>1.18211788893145e-17</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>1.227454834808766e-17</v>
+        <v>1.223948614294345e-17</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>1.270210848499613e-17</v>
+        <v>1.267803517903647e-17</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>1.314835279756426e-17</v>
+        <v>1.313731833289121e-17</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>1.361367113844928e-17</v>
+        <v>1.361782789425168e-17</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>1.409725472104949e-17</v>
+        <v>1.411874876373825e-17</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>1.45939614875041e-17</v>
+        <v>1.46345394226823e-17</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>1.509767048056216e-17</v>
+        <v>1.515859063966818e-17</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>1.560226074297089e-17</v>
+        <v>1.568429318327833e-17</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>1.610161131747938e-17</v>
+        <v>1.620503782209712e-17</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>1.658960124683529e-17</v>
+        <v>1.671421532470744e-17</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>1.706010957378637e-17</v>
+        <v>1.720521645969226e-17</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>1.750701534108162e-17</v>
+        <v>1.767143199563585e-17</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>1.792419759146874e-17</v>
+        <v>1.810625270112117e-17</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>1.830553536769555e-17</v>
+        <v>1.850306934473125e-17</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>1.864490771251089e-17</v>
+        <v>1.885527269505022e-17</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>1.893619366866253e-17</v>
+        <v>1.915625352066107e-17</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>1.917327227889845e-17</v>
+        <v>1.939940259014702e-17</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>1.935002258596721e-17</v>
+        <v>1.95781106720919e-17</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>1.946032363261665e-17</v>
+        <v>1.968576853507879e-17</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>1.949805446159512e-17</v>
+        <v>1.971576694769127e-17</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>1.945709411565062e-17</v>
+        <v>1.96614966785126e-17</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>1.933189907156376e-17</v>
+        <v>1.951697849853368e-17</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>1.912706359580307e-17</v>
+        <v>1.928729389140002e-17</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>1.885583080869314e-17</v>
+        <v>1.898696056800581e-17</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>1.853172112012324e-17</v>
+        <v>1.863079877266636e-17</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>1.81682549399817e-17</v>
+        <v>1.823362874969597e-17</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>1.777895267815775e-17</v>
+        <v>1.781027074340985e-17</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>1.737733474454067e-17</v>
+        <v>1.737554499812338e-17</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>1.697692154901869e-17</v>
+        <v>1.69442717581507e-17</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>1.659123350148144e-17</v>
+        <v>1.653127126780749e-17</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>1.623379101181715e-17</v>
+        <v>1.615136377140796e-17</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>1.591811448991513e-17</v>
+        <v>1.581936951326745e-17</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>1.56577243456645e-17</v>
+        <v>1.55501087377011e-17</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>1.546614098895375e-17</v>
+        <v>1.535840168902336e-17</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>1.535688482967206e-17</v>
+        <v>1.525906861154947e-17</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>1.534341363997351e-17</v>
+        <v>1.526686225148499e-17</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>1.542843272338078e-17</v>
+        <v>1.538494854869791e-17</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>1.559179318470017e-17</v>
+        <v>1.559186587299686e-17</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>1.581042253251806e-17</v>
+        <v>1.586300214154831e-17</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>1.606124827542144e-17</v>
+        <v>1.617374527151944e-17</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>1.632119792199648e-17</v>
+        <v>1.649948318007647e-17</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>1.656719898083027e-17</v>
+        <v>1.681560378438669e-17</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>1.677617896050917e-17</v>
+        <v>1.709749500161654e-17</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>1.692506536961974e-17</v>
+        <v>1.732054474893271e-17</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>1.699154006585934e-17</v>
+        <v>1.746083254355091e-17</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>1.697703434331177e-17</v>
+        <v>1.751621178845986e-17</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>1.691094458660776e-17</v>
+        <v>1.751017475559998e-17</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>1.682427172320979e-17</v>
+        <v>1.7467684788973e-17</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>1.674801668058053e-17</v>
+        <v>1.74137052325807e-17</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>1.671318038618261e-17</v>
+        <v>1.737319943042487e-17</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>1.675076376747857e-17</v>
+        <v>1.737113072650724e-17</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>1.688864821681865e-17</v>
+        <v>1.743034294330321e-17</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>1.71019974077153e-17</v>
+        <v>1.753786163682457e-17</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>1.732206313127881e-17</v>
+        <v>1.765087709062671e-17</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>1.747875727302113e-17</v>
+        <v>1.772566920942444e-17</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>1.750199171845442e-17</v>
+        <v>1.771851789793274e-17</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>1.7340852885118e-17</v>
+        <v>1.759676056899418e-17</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>1.70302220151727e-17</v>
+        <v>1.737721052196728e-17</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>1.66289666435988e-17</v>
+        <v>1.709051339524367e-17</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>1.619595542347038e-17</v>
+        <v>1.676731547199391e-17</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>1.57806718321707e-17</v>
+        <v>1.643361830027464e-17</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>1.539075972176413e-17</v>
+        <v>1.609471694557063e-17</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>1.502220802034671e-17</v>
+        <v>1.575013843700949e-17</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>1.467100516247688e-17</v>
+        <v>1.539940955946649e-17</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>1.433313958271208e-17</v>
+        <v>1.504205709781595e-17</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>1.400459971561072e-17</v>
+        <v>1.467760783693315e-17</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>1.368137399573119e-17</v>
+        <v>1.430558856169335e-17</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>1.335945085763101e-17</v>
+        <v>1.392552605697086e-17</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>1.303481873586886e-17</v>
+        <v>1.353694710764132e-17</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>1.270346606500223e-17</v>
+        <v>1.313937849857896e-17</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>1.236138127958953e-17</v>
+        <v>1.27323470146591e-17</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>1.200455281418884e-17</v>
+        <v>1.231537944075668e-17</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>1.16289691033586e-17</v>
+        <v>1.188800256174706e-17</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>1.12308466246489e-17</v>
+        <v>1.14498647930104e-17</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>1.081190865956042e-17</v>
+        <v>1.100355169499475e-17</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>1.037953479737836e-17</v>
+        <v>1.05546657135596e-17</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>9.941362577874998e-18</v>
+        <v>1.010894687672841e-17</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>9.505029540822634e-18</v>
+        <v>9.672135212524632e-18</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>9.078173225992377e-18</v>
+        <v>9.249970748970517e-18</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>8.668431173156534e-18</v>
+        <v>8.848193514089529e-18</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>8.283440922087342e-18</v>
+        <v>8.472543535905042e-18</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>7.930840012556008e-18</v>
+        <v>8.128760842439434e-18</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>7.6182659843348e-18</v>
+        <v>7.822585461716112e-18</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>7.353356377195837e-18</v>
+        <v>7.559757421758351e-18</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>7.143748730910545e-18</v>
+        <v>7.346016750588721e-18</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>6.997080585251193e-18</v>
+        <v>7.187103476230658e-18</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>6.920110326171202e-18</v>
+        <v>7.088609449428999e-18</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>6.91461595463472e-18</v>
+        <v>7.055287100254835e-18</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>6.980623729112746e-18</v>
+        <v>7.091593610747504e-18</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>7.118157972057303e-18</v>
+        <v>7.201985836639466e-18</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>7.32724300592027e-18</v>
+        <v>7.390920633663114e-18</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>7.607903153153267e-18</v>
+        <v>7.662854857550564e-18</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>7.960162736208705e-18</v>
+        <v>8.022245364034696e-18</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>8.384046077538269e-18</v>
+        <v>8.473549008847703e-18</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>8.879577945435541e-18</v>
+        <v>9.021223080967034e-18</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>9.527266578552808e-18</v>
+        <v>9.747934407471342e-18</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>1.071262554628625e-17</v>
+        <v>1.103273770638737e-17</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>1.288827060004223e-17</v>
+        <v>1.331973131019602e-17</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>1.617478778357786e-17</v>
+        <v>1.671984923017589e-17</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>2.016395068001952e-17</v>
+        <v>2.081340595642913e-17</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>2.440034663836748e-17</v>
+        <v>2.513336849990027e-17</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>2.842856300761109e-17</v>
+        <v>2.921270387152265e-17</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>3.17931871367405e-17</v>
+        <v>3.25843790822305e-17</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>3.404438845173174e-17</v>
+        <v>3.478721833143842e-17</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>3.508824771444362e-17</v>
+        <v>3.573349817007757e-17</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>3.539492644145158e-17</v>
+        <v>3.592737650562916e-17</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>3.54845902219257e-17</v>
+        <v>3.592547975841183e-17</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>3.587740464503473e-17</v>
+        <v>3.62844343487432e-17</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>3.704000534819337e-17</v>
+        <v>3.750260604821085e-17</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>3.89193230514261e-17</v>
+        <v>3.951272691039934e-17</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>4.117004180376564e-17</v>
+        <v>4.192945508665415e-17</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>4.34435888366769e-17</v>
+        <v>4.436390409026158e-17</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>4.539139138163115e-17</v>
+        <v>4.642718743451471e-17</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>4.668731587001102e-17</v>
+        <v>4.775629253447266e-17</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>4.725764731204293e-17</v>
+        <v>4.82792623481075e-17</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>4.718760264936857e-17</v>
+        <v>4.810739900471054e-17</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>4.656487706590575e-17</v>
+        <v>4.735486221305251e-17</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>4.547716574557043e-17</v>
+        <v>4.613581168190182e-17</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>4.401197450840092e-17</v>
+        <v>4.456392565202008e-17</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>4.224812438811708e-17</v>
+        <v>4.27308008204505e-17</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>4.025232310183318e-17</v>
+        <v>4.069723511495146e-17</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>3.809037941023153e-17</v>
+        <v>3.85217408174306e-17</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>3.582810207399494e-17</v>
+        <v>3.626283020979603e-17</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>3.353129985380014e-17</v>
+        <v>3.397901557394973e-17</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>3.12657815103319e-17</v>
+        <v>3.172880919180176e-17</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>2.909652543138648e-17</v>
+        <v>2.956999493383983e-17</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>2.705951906240137e-17</v>
+        <v>2.75349255253132e-17</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>2.515488940534079e-17</v>
+        <v>2.56244965509952e-17</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>2.338053968379499e-17</v>
+        <v>2.383765287497795e-17</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>2.173437312135938e-17</v>
+        <v>2.217333936135872e-17</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>2.021429294162892e-17</v>
+        <v>2.06305008742344e-17</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>1.881820236819453e-17</v>
+        <v>1.920808227769772e-17</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>1.754400462465129e-17</v>
+        <v>1.790502843584567e-17</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>1.638960293459382e-17</v>
+        <v>1.672028421277478e-17</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>1.535290052161371e-17</v>
+        <v>1.565279447257845e-17</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>1.443180060930648e-17</v>
+        <v>1.470150407935414e-17</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>1.362420642126411e-17</v>
+        <v>1.386535789719566e-17</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>1.292802118108114e-17</v>
+        <v>1.314330079019944e-17</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>1.234077994499867e-17</v>
+        <v>1.253388327990927e-17</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>1.1850030860508e-17</v>
+        <v>1.202495895058423e-17</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>1.143241038225825e-17</v>
+        <v>1.159269391672415e-17</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>1.106400138588043e-17</v>
+        <v>1.12126613565972e-17</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>1.072088674700403e-17</v>
+        <v>1.086043444847003e-17</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>1.03791493412596e-17</v>
+        <v>1.051158637061037e-17</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>1.001487204427765e-17</v>
+        <v>1.014169030128588e-17</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>9.604137731687715e-18</v>
+        <v>9.726319418763277e-18</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>9.123047175308199e-18</v>
+        <v>9.241064952421512e-18</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>8.561929683524118e-18</v>
+        <v>8.675869841541554e-18</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>7.950908486141112e-18</v>
+        <v>8.060815434116906e-18</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>7.327010357733954e-18</v>
+        <v>7.432946385390422e-18</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>6.727262072877454e-18</v>
+        <v>6.829307350604996e-18</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>6.1886904061448e-18</v>
+        <v>6.286942985001892e-18</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>5.748322132111184e-18</v>
+        <v>5.842897943824392e-18</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>5.443184025350081e-18</v>
+        <v>5.534216882314041e-18</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>5.310302860436231e-18</v>
+        <v>5.397944455713667e-18</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>5.386705411943758e-18</v>
+        <v>5.471125319265476e-18</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>5.709418454447062e-18</v>
+        <v>5.790804128211945e-18</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>6.315468762520472e-18</v>
+        <v>6.394025537795486e-18</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>7.241883110737293e-18</v>
+        <v>7.317834203257488e-18</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>8.525688273673461e-18</v>
+        <v>8.599274779841964e-18</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>1.022046861362906e-17</v>
+        <v>1.02922589131873e-17</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>1.258699497523443e-17</v>
+        <v>1.266175631279488e-17</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>1.602703758514849e-17</v>
+        <v>1.61163708492469e-17</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>2.094506909874901e-17</v>
+        <v>2.10674593206658e-17</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>2.774556217142933e-17</v>
+        <v>2.792637852518963e-17</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>3.68329894585705e-17</v>
+        <v>3.710448526094412e-17</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>4.81687382294726e-17</v>
+        <v>4.856248834081301e-17</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>5.766370088828501e-17</v>
+        <v>5.814146770352957e-17</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>5.905799786642814e-17</v>
+        <v>5.947468049190384e-17</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>5.301328982456689e-17</v>
+        <v>5.322687560791764e-17</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>5.50318543543322e-17</v>
+        <v>5.515361395184984e-17</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>6.224512958834382e-17</v>
+        <v>6.237093273045056e-17</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>6.947950408800393e-17</v>
+        <v>6.965513807480608e-17</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>7.202541682792496e-17</v>
+        <v>7.224904207930949e-17</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>7.006508441163661e-17</v>
+        <v>7.031311959674458e-17</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>6.671328005533669e-17</v>
+        <v>6.695591988862159e-17</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>6.509497629649664e-17</v>
+        <v>6.52966175642289e-17</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>6.611699375338513e-17</v>
+        <v>6.625242369162769e-17</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>6.70672943191993e-17</v>
+        <v>6.714747407861441e-17</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>6.665320967731969e-17</v>
+        <v>6.670409856822868e-17</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>6.507935170160969e-17</v>
+        <v>6.512185603498882e-17</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>6.259722513025935e-17</v>
+        <v>6.264657024157013e-17</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>5.945833470146264e-17</v>
+        <v>5.952406495065186e-17</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>5.591418515341595e-17</v>
+        <v>5.600016392491563e-17</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>5.221628122430574e-17</v>
+        <v>5.232069092703322e-17</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>4.860659338868639e-17</v>
+        <v>4.872224586981973e-17</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>4.519034477538861e-17</v>
+        <v>4.530913350057345e-17</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>4.197043490549781e-17</v>
+        <v>4.208666638103078e-17</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>3.894729579463833e-17</v>
+        <v>3.905776990379056e-17</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>3.612135945843383e-17</v>
+        <v>3.622536946145099e-17</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>3.349305791250038e-17</v>
+        <v>3.35923904466027e-17</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>3.106282317246393e-17</v>
+        <v>3.116175825184614e-17</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>2.883108725394122e-17</v>
+        <v>2.893639826977261e-17</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>2.679830607196585e-17</v>
+        <v>2.691925198225659e-17</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>2.497171214641076e-17</v>
+        <v>2.511782293643645e-17</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>2.337459860109296e-17</v>
+        <v>2.355042680810523e-17</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>2.203258542433835e-17</v>
+        <v>2.223694573709107e-17</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>2.09712926044719e-17</v>
+        <v>2.119726186322122e-17</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>2.021313234675105e-17</v>
+        <v>2.04483131304783e-17</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>1.97266000907753e-17</v>
+        <v>1.995755111981714e-17</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>1.943543395181651e-17</v>
+        <v>1.965134784866879e-17</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>1.926201608012695e-17</v>
+        <v>1.945483079064942e-17</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>1.912872862595983e-17</v>
+        <v>1.929312741937618e-17</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>1.895795373956772e-17</v>
+        <v>1.909136520846552e-17</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>1.867207357120347e-17</v>
+        <v>1.877467163153424e-17</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>1.820216777746641e-17</v>
+        <v>1.827678671878745e-17</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>1.756792434988706e-17</v>
+        <v>1.76191933853897e-17</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>1.684077277889449e-17</v>
+        <v>1.687461067896432e-17</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>1.609279095040123e-17</v>
+        <v>1.611639970964896e-17</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>1.539605675031772e-17</v>
+        <v>1.541792158757916e-17</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>1.482230863500772e-17</v>
+        <v>1.485218152392084e-17</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>1.439115389351685e-17</v>
+        <v>1.443752411201853e-17</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>1.401438064789683e-17</v>
+        <v>1.407924329655375e-17</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>1.359511752322036e-17</v>
+        <v>1.367365675230489e-17</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>1.310167965632327e-17</v>
+        <v>1.318686629564581e-17</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>1.25500738909488e-17</v>
+        <v>1.263602916435159e-17</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>1.195739832671306e-17</v>
+        <v>1.203947081876812e-17</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>1.134075106323276e-17</v>
+        <v>1.141551671924185e-17</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>1.07172302001229e-17</v>
+        <v>1.078249232611755e-17</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>1.010393383700071e-17</v>
+        <v>1.01587230997422e-17</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>9.517861820241456e-18</v>
+        <v>9.562429452498256e-18</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>8.96937023337873e-18</v>
+        <v>9.00472858316939e-18</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>8.458062152472208e-18</v>
+        <v>8.485241056668549e-18</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>7.982560339502564e-18</v>
+        <v>8.002539330012222e-18</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>7.541487556451876e-18</v>
+        <v>7.555195860218334e-18</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>7.133466565302078e-18</v>
+        <v>7.141783104304661e-18</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>6.757120128034035e-18</v>
+        <v>6.760873519287889e-18</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>6.411071006629723e-18</v>
+        <v>6.411039562185835e-18</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>6.093941963071007e-18</v>
+        <v>6.090853690016204e-18</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>5.804355759338911e-18</v>
+        <v>5.798888359795847e-18</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>5.540935157415551e-18</v>
+        <v>5.533716028542721e-18</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>5.302302919282046e-18</v>
+        <v>5.293909153273777e-18</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>5.08708180692024e-18</v>
+        <v>5.078040191006694e-18</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>4.893894582311887e-18</v>
+        <v>4.884681598759066e-18</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>4.721364007438237e-18</v>
+        <v>4.712405833547973e-18</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>4.568112844281066e-18</v>
+        <v>4.559785352391027e-18</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>4.432763854822079e-18</v>
+        <v>4.425392612305771e-18</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>4.313939801042629e-18</v>
+        <v>4.30780007030939e-18</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>4.210263444924436e-18</v>
+        <v>4.205580183419443e-18</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>4.120357548449172e-18</v>
+        <v>4.117305408653431e-18</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>4.042844873598265e-18</v>
+        <v>4.041548203028624e-18</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>3.976348182353453e-18</v>
+        <v>3.976881023562591e-18</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>3.91949023669621e-18</v>
+        <v>3.921876327272644e-18</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>3.870893798608193e-18</v>
+        <v>3.875106571176273e-18</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>3.829181630070995e-18</v>
+        <v>3.835144212290907e-18</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>3.792976493066241e-18</v>
+        <v>3.800561707634006e-18</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>3.760901149575459e-18</v>
+        <v>3.769931514222932e-18</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>3.731740962985053e-18</v>
+        <v>3.741996109003212e-18</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>3.705186837799465e-18</v>
+        <v>3.716444824428533e-18</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>3.681243059535031e-18</v>
+        <v>3.693294671653586e-18</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>3.659914216533667e-18</v>
+        <v>3.672562978474743e-18</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>3.641204897137228e-18</v>
+        <v>3.654267072688324e-18</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>3.625119689687629e-18</v>
+        <v>3.638424282090702e-18</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>3.611663182526777e-18</v>
+        <v>3.625051934478247e-18</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>3.60083996399654e-18</v>
+        <v>3.614167357647289e-18</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>3.592654622438829e-18</v>
+        <v>3.605787879394197e-18</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>3.587111746195542e-18</v>
+        <v>3.599930827515332e-18</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>3.584215923608563e-18</v>
+        <v>3.596613529807037e-18</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>3.583971743019792e-18</v>
+        <v>3.595853314065675e-18</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>3.586383792771126e-18</v>
+        <v>3.597667508087602e-18</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>3.591456661204457e-18</v>
+        <v>3.602073439669174e-18</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>3.599194936661675e-18</v>
+        <v>3.609088436606738e-18</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>3.609603207484687e-18</v>
+        <v>3.618729826696666e-18</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>3.622686062015383e-18</v>
+        <v>3.631014937735305e-18</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>3.638448088595643e-18</v>
+        <v>3.645961097518999e-18</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>3.656893875567388e-18</v>
+        <v>3.663585633844128e-18</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>3.678028011272503e-18</v>
+        <v>3.683905874507038e-18</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>3.701855084052857e-18</v>
+        <v>3.706939147304062e-18</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>3.728379682250391e-18</v>
+        <v>3.732702780031597e-18</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>3.757606394206949e-18</v>
+        <v>3.761214100485952e-18</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>3.78953980826448e-18</v>
+        <v>3.792490436463535e-18</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>3.824184512764853e-18</v>
+        <v>3.826549115760677e-18</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>3.861545096049931e-18</v>
+        <v>3.863407466173699e-18</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>3.901626146461671e-18</v>
+        <v>3.903082815499023e-18</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>3.94443225234194e-18</v>
+        <v>3.945592491532975e-18</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>3.989968002032588e-18</v>
+        <v>3.990953822071867e-18</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>4.038237983875593e-18</v>
+        <v>4.039184134912135e-18</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>4.089246786212809e-18</v>
+        <v>4.090300757850097e-18</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>4.142998997386082e-18</v>
+        <v>4.144321018682059e-18</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>4.199499205737404e-18</v>
+        <v>4.201262245204474e-18</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>4.258751999608567e-18</v>
+        <v>4.261141765213594e-18</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>4.320761967341574e-18</v>
+        <v>4.323976906505886e-18</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>4.385817006926262e-18</v>
+        <v>4.390059405598043e-18</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>4.455543670193877e-18</v>
+        <v>4.460977595470285e-18</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>4.531963507207603e-18</v>
+        <v>4.538702397412651e-18</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>4.617098125282771e-18</v>
+        <v>4.625204788168613e-18</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>4.712969131734413e-18</v>
+        <v>4.722455744481335e-18</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>4.821598133877896e-18</v>
+        <v>4.832426243094323e-18</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>4.94500673902833e-18</v>
+        <v>4.957087260750821e-18</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>5.085216554500774e-18</v>
+        <v>5.098409774194023e-18</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>5.244249187610671e-18</v>
+        <v>5.25836476016751e-18</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>5.424126245673098e-18</v>
+        <v>5.438923195414493e-18</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>5.626869336003052e-18</v>
+        <v>5.642056056678106e-18</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>5.854362332239006e-18</v>
+        <v>5.869598621287612e-18</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>6.106028850667998e-18</v>
+        <v>6.12096224608302e-18</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>6.379171006802272e-18</v>
+        <v>6.393468120713922e-18</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>6.671021400237713e-18</v>
+        <v>6.684368945631463e-18</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>6.978812630569197e-18</v>
+        <v>6.990917421285786e-18</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>7.299777297392672e-18</v>
+        <v>7.310366248128097e-18</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>7.631148000303264e-18</v>
+        <v>7.639968126608785e-18</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>7.970157338896061e-18</v>
+        <v>7.976975757178203e-18</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>8.314037912767068e-18</v>
+        <v>8.318641840287612e-18</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>8.660022321511377e-18</v>
+        <v>8.662219076387369e-18</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>9.00534316472407e-18</v>
+        <v>9.004960165927825e-18</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>9.347233042001169e-18</v>
+        <v>9.344117809360254e-18</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>9.682924552937752e-18</v>
+        <v>9.676944707135e-18</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>1.000965029712893e-17</v>
+        <v>1.000069355970244e-17</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>1.032464287417068e-17</v>
+        <v>1.031261706751381e-17</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>1.062772907266259e-17</v>
+        <v>1.061257299965693e-17</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>1.093070430360962e-17</v>
+        <v>1.09124379422017e-17</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>1.124881331939593e-17</v>
+        <v>1.122755228860882e-17</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>1.159730119437401e-17</v>
+        <v>1.157325675565759e-17</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>1.199141300289727e-17</v>
+        <v>1.196489206012824e-17</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>1.244639381931824e-17</v>
+        <v>1.241779891880011e-17</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>1.29774887179892e-17</v>
+        <v>1.294731804845231e-17</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>1.359994277326392e-17</v>
+        <v>1.356879016586542e-17</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>1.432898867154799e-17</v>
+        <v>1.429754324946671e-17</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>1.51760216244621e-17</v>
+        <v>1.514495925618505e-17</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>1.614318596544853e-17</v>
+        <v>1.611290759466757e-17</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>1.723126007502976e-17</v>
+        <v>1.720185308333236e-17</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>1.844102233372783e-17</v>
+        <v>1.84122605405971e-17</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>1.977325112206815e-17</v>
+        <v>1.974459478488276e-17</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>2.122872482057286e-17</v>
+        <v>2.119932063460711e-17</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>2.28082218097637e-17</v>
+        <v>2.277690290818751e-17</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>2.451252047016669e-17</v>
+        <v>2.447780642404559e-17</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>2.63408589066942e-17</v>
+        <v>2.630101174003711e-17</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>2.827367995192905e-17</v>
+        <v>2.822738766746315e-17</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>3.027886423744392e-17</v>
+        <v>3.02256976649126e-17</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>3.232406252441517e-17</v>
+        <v>3.226448368025151e-17</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>3.437692557402465e-17</v>
+        <v>3.431228766135148e-17</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>3.640510414744874e-17</v>
+        <v>3.633765155607859e-17</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>3.837624900586389e-17</v>
+        <v>3.830911731229901e-17</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>4.025801091045185e-17</v>
+        <v>4.019522687788422e-17</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>4.201804062238902e-17</v>
+        <v>4.196452220070034e-17</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>4.362267716072304e-17</v>
+        <v>4.358410709594754e-17</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>4.501958533234888e-17</v>
+        <v>4.500061184678154e-17</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>4.614252699404246e-17</v>
+        <v>4.614542419266018e-17</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>4.692493262874692e-17</v>
+        <v>4.694956857028266e-17</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>4.730023271940224e-17</v>
+        <v>4.734406941634497e-17</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>4.720185774894977e-17</v>
+        <v>4.725995116754443e-17</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>4.656327467898621e-17</v>
+        <v>4.662827546676878e-17</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>4.537713723930445e-17</v>
+        <v>4.544047115359515e-17</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>4.381564427239679e-17</v>
+        <v>4.387109305104732e-17</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>4.20849124676886e-17</v>
+        <v>4.212929029097005e-17</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>4.039105849927942e-17</v>
+        <v>4.042421198967045e-17</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>3.889862023752195e-17</v>
+        <v>3.892285389307555e-17</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>3.760938494652861e-17</v>
+        <v>3.762721213273682e-17</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>3.648532437225682e-17</v>
+        <v>3.649891712180066e-17</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>3.548841026065962e-17</v>
+        <v>3.549959927340908e-17</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>3.458061435769304e-17</v>
+        <v>3.459088900070709e-17</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>3.372390840931216e-17</v>
+        <v>3.373441671683873e-17</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>3.288026416147271e-17</v>
+        <v>3.28918128349487e-17</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>3.201165336012821e-17</v>
+        <v>3.202470776817952e-17</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>3.108004775123532e-17</v>
+        <v>3.10947319296768e-17</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>3.005395359590883e-17</v>
+        <v>3.007008825175631e-17</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>2.893950358949376e-17</v>
+        <v>2.895682493211267e-17</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>2.77562703850635e-17</v>
+        <v>2.777450829146533e-17</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>2.652384340927499e-17</v>
+        <v>2.65427215216706e-17</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>2.526181208878837e-17</v>
+        <v>2.5281047814588e-17</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>2.398976585026387e-17</v>
+        <v>2.400907036207715e-17</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>2.272729412035829e-17</v>
+        <v>2.274637235599419e-17</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>2.149398632573187e-17</v>
+        <v>2.151253698819875e-17</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>2.030933658510035e-17</v>
+        <v>2.032705245522909e-17</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>1.918359805426419e-17</v>
+        <v>1.920019630233305e-17</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>1.811019328190516e-17</v>
+        <v>1.812547067433807e-17</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>1.708075833182986e-17</v>
+        <v>1.709459709111157e-17</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>1.608692926784777e-17</v>
+        <v>1.609929707252391e-17</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>1.512034215376825e-17</v>
+        <v>1.513129213844529e-17</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>1.417263305339808e-17</v>
+        <v>1.418230380874335e-17</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>1.323543803054662e-17</v>
+        <v>1.324405360328832e-17</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>1.230039314902322e-17</v>
+        <v>1.23082630419504e-17</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>1.135955767663939e-17</v>
+        <v>1.136707223165071e-17</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>1.041502532697002e-17</v>
+        <v>1.042254625411828e-17</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>9.479094244473825e-18</v>
+        <v>9.48684329655491e-18</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>8.5645197776436e-18</v>
+        <v>8.572573762321296e-18</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>7.684057274975454e-18</v>
+        <v>7.69234805478147e-18</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>6.850462084962271e-18</v>
+        <v>6.858776577296233e-18</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>6.076489556099354e-18</v>
+        <v>6.084469733228806e-18</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>5.37489503688178e-18</v>
+        <v>5.382037925942184e-18</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>4.758433875802768e-18</v>
+        <v>4.764091558797497e-18</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>4.23887827921553e-18</v>
+        <v>4.242345588358995e-18</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>3.823754055896007e-18</v>
+        <v>3.82464734823498e-18</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>3.519440796503265e-18</v>
+        <v>3.51780019548161e-18</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>3.332369569551688e-18</v>
+        <v>3.328658033768305e-18</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>3.272295339099927e-18</v>
+        <v>3.267338450876909e-18</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>3.349706014811716e-18</v>
+        <v>3.344541936916071e-18</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>3.546394902757742e-18</v>
+        <v>3.541919096726503e-18</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>3.832664310300091e-18</v>
+        <v>3.829492930195787e-18</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>4.178788759507274e-18</v>
+        <v>4.177258321603335e-18</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>4.554904943634233e-18</v>
+        <v>4.555076235994384e-18</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>4.927965199402441e-18</v>
+        <v>4.929713607657666e-18</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>5.261729545689749e-18</v>
+        <v>5.264835604641612e-18</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>5.519818580293679e-18</v>
+        <v>5.523971928659077e-18</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>5.665852901012772e-18</v>
+        <v>5.67065228142394e-18</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>5.66348152185354e-18</v>
+        <v>5.668434776316947e-18</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>5.505887332048485e-18</v>
+        <v>5.51040668223796e-18</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>5.271637178838007e-18</v>
+        <v>5.275025581178486e-18</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>5.054637855865225e-18</v>
+        <v>5.056086550108748e-18</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>4.943852602652039e-18</v>
+        <v>4.942471147062476e-18</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>4.935493550085498e-18</v>
+        <v>4.930873342462588e-18</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>4.943354377572524e-18</v>
+        <v>4.936069398918047e-18</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>4.878360783072409e-18</v>
+        <v>4.869985022372121e-18</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>4.671577161625431e-18</v>
+        <v>4.66440802160471e-18</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>4.339318699296072e-18</v>
+        <v>4.335206122354518e-18</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>3.920454919809812e-18</v>
+        <v>3.920491616244187e-18</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>3.453855490462083e-18</v>
+        <v>3.458376936494471e-18</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>2.978390078548492e-18</v>
+        <v>2.986974516326289e-18</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>2.532925703721383e-18</v>
+        <v>2.544394204418557e-18</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>2.146836155863528e-18</v>
+        <v>2.159478871809635e-18</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>1.818671931497736e-18</v>
+        <v>1.830982707676285e-18</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>1.540738650708409e-18</v>
+        <v>1.551563858886403e-18</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>1.305341933580851e-18</v>
+        <v>1.313880472308791e-18</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>1.104787400200216e-18</v>
+        <v>1.1105906948121e-18</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>9.31380670651134e-19</v>
+        <v>9.343526732644514e-19</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>7.774275233893919e-19</v>
+        <v>7.778247132829658e-19</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>6.426172458750507e-19</v>
+        <v>6.41065872987397e-19</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>5.43413684029363e-19</v>
+        <v>5.408078377047506e-19</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>4.763903370123929e-19</v>
+        <v>4.734890835681212e-19</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>4.340967405048832e-19</v>
+        <v>4.314598014119317e-19</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>4.090824301874779e-19</v>
+        <v>4.070701820705072e-19</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>3.938969417409504e-19</v>
+        <v>3.926704163783013e-19</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>3.821141508137065e-19</v>
+        <v>3.816623837685611e-19</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>3.72164539265426e-19</v>
+        <v>3.724342353642065e-19</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>3.639164602159311e-19</v>
+        <v>3.648503829619595e-19</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>3.572384875122858e-19</v>
+        <v>3.58775464978935e-19</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>3.519991950015769e-19</v>
+        <v>3.54074119832269e-19</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>3.480671565308863e-19</v>
+        <v>3.506109859390928e-19</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>3.453109459472858e-19</v>
+        <v>3.482507017165287e-19</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>3.435991370978581e-19</v>
+        <v>3.468579055817092e-19</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>3.428003038296826e-19</v>
+        <v>3.462972359517628e-19</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>3.427830199898364e-19</v>
+        <v>3.464333312438171e-19</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>3.434158594253989e-19</v>
+        <v>3.47130829875001e-19</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>3.44567488875691e-19</v>
+        <v>3.482544864189601e-19</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>3.461244253940789e-19</v>
+        <v>3.496913762617501e-19</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>3.480121433715718e-19</v>
+        <v>3.513772887461296e-19</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>3.501612562702052e-19</v>
+        <v>3.532544393337485e-19</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>3.525023775520091e-19</v>
+        <v>3.552650434862517e-19</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>3.549661206790134e-19</v>
+        <v>3.573513166652842e-19</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>3.574830991132544e-19</v>
+        <v>3.594554743324964e-19</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>3.599839263167615e-19</v>
+        <v>3.615197319495329e-19</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>3.623992157515645e-19</v>
+        <v>3.634863049780388e-19</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>3.646595808796998e-19</v>
+        <v>3.652974088796642e-19</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>3.666956351631952e-19</v>
+        <v>3.668952591160528e-19</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>3.684379920640863e-19</v>
+        <v>3.68222071148854e-19</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>3.698172650444031e-19</v>
+        <v>3.692200604397129e-19</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>3.707640675661766e-19</v>
+        <v>3.698314424502759e-19</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>3.712090130914405e-19</v>
+        <v>3.699984326421905e-19</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>3.710827150822255e-19</v>
+        <v>3.696632464771027e-19</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>3.703157870005645e-19</v>
+        <v>3.687680994166602e-19</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>3.688388423084882e-19</v>
+        <v>3.672552069225084e-19</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>3.665824944680285e-19</v>
+        <v>3.65066784456294e-19</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>3.635505392047957e-19</v>
+        <v>3.622129449740854e-19</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>3.600843194943952e-19</v>
+        <v>3.59016973113215e-19</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>3.56622433772694e-19</v>
+        <v>3.558923857851713e-19</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>3.536034895060097e-19</v>
+        <v>3.532527082797704e-19</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>3.514660941606695e-19</v>
+        <v>3.515114658868376e-19</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>3.506488552029976e-19</v>
+        <v>3.510821838961948e-19</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>3.51590380099316e-19</v>
+        <v>3.52378387597662e-19</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>3.547292763159503e-19</v>
+        <v>3.558136022810636e-19</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>3.605041513192181e-19</v>
+        <v>3.618013532362144e-19</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>3.693536125754534e-19</v>
+        <v>3.707551657529472e-19</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>3.817162675509764e-19</v>
+        <v>3.8308856512108e-19</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>3.980307237120946e-19</v>
+        <v>3.992150766304183e-19</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>4.18735588525161e-19</v>
+        <v>4.195482255708132e-19</v>
       </c>
     </row>
   </sheetData>
